--- a/res/disease_ignore.xlsx
+++ b/res/disease_ignore.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="1354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="1371">
   <si>
     <t>rv8YkvJ2Vzg</t>
   </si>
@@ -4074,6 +4074,57 @@
   </si>
   <si>
     <t>ItpF46uRe5M</t>
+  </si>
+  <si>
+    <t>osCkeNUZgt8</t>
+  </si>
+  <si>
+    <t>oMXGGmBfkf8</t>
+  </si>
+  <si>
+    <t>UZw8oRnk0Og</t>
+  </si>
+  <si>
+    <t>FKmCsysiYRk</t>
+  </si>
+  <si>
+    <t>Mt239UeAnJg</t>
+  </si>
+  <si>
+    <t>50_jRz8LloI</t>
+  </si>
+  <si>
+    <t>ztSWLFZ8lFQ</t>
+  </si>
+  <si>
+    <t>Wb9p6uM57I8</t>
+  </si>
+  <si>
+    <t>1Uci71lS2LA</t>
+  </si>
+  <si>
+    <t>-h2Zb5rnHdA</t>
+  </si>
+  <si>
+    <t>JpOmFQsFNL4</t>
+  </si>
+  <si>
+    <t>xkTTdGqAHVM</t>
+  </si>
+  <si>
+    <t>W3et1dgZu6Y</t>
+  </si>
+  <si>
+    <t>RodEgLRYmhs</t>
+  </si>
+  <si>
+    <t>jsxc-CqIVqg</t>
+  </si>
+  <si>
+    <t>064Y5rXGm_s</t>
+  </si>
+  <si>
+    <t>VZVWeZmlRpM</t>
   </si>
 </sst>
 </file>
@@ -11585,6 +11636,96 @@
         <v>1353</v>
       </c>
     </row>
+    <row r="1449">
+      <c r="A1449" s="1" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" s="1" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" s="1" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" s="1" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" s="1" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" s="1" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" s="1" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" s="1" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" s="1" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" s="1" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" s="1" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" s="1" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" s="1" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" s="1" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" s="1" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" s="1" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" s="1" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" s="1" t="s">
+        <v>1370</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
